--- a/Data/Excel/FCFS/8.xlsx
+++ b/Data/Excel/FCFS/8.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>53.71</v>
+        <v>40.95</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.18</v>
+        <v>40.42</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>52.64</v>
+        <v>39.88</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52.11</v>
+        <v>39.35</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51.58</v>
+        <v>38.82</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.04</v>
+        <v>38.28</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50.51</v>
+        <v>37.75</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49.98</v>
+        <v>37.22</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>49.44</v>
+        <v>36.68</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>48.91</v>
+        <v>36.15</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>48.38</v>
+        <v>35.62</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>47.84</v>
+        <v>35.08</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47.31</v>
+        <v>34.55</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>46.78</v>
+        <v>34.02</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46.24</v>
+        <v>33.48</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45.71</v>
+        <v>32.95</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.18</v>
+        <v>32.42</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.64</v>
+        <v>31.88</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.11</v>
+        <v>31.35</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43.58</v>
+        <v>30.82</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.04</v>
+        <v>30.28</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.51</v>
+        <v>29.75</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>41.98</v>
+        <v>29.22</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>41.44</v>
+        <v>28.68</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.91</v>
+        <v>28.15</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.38</v>
+        <v>27.62</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>39.84</v>
+        <v>27.08</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.31</v>
+        <v>26.55</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>38.78</v>
+        <v>26.02</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38.24</v>
+        <v>25.48</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>37.71</v>
+        <v>24.95</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.18</v>
+        <v>24.42</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>36.64</v>
+        <v>23.88</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>36.11</v>
+        <v>23.35</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.58</v>
+        <v>22.82</v>
       </c>
       <c r="C36" t="n">
         <v>-2</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.04</v>
+        <v>22.28</v>
       </c>
       <c r="C37" t="n">
         <v>-2</v>
@@ -1181,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.51</v>
+        <v>21.75</v>
       </c>
       <c r="C38" t="n">
         <v>-2</v>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>33.98</v>
+        <v>21.22</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33.44</v>
+        <v>20.68</v>
       </c>
       <c r="C40" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>32.91</v>
+        <v>20.15</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
@@ -1261,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>32.38</v>
+        <v>19.62</v>
       </c>
       <c r="C42" t="n">
         <v>-2</v>
@@ -1281,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>31.84</v>
+        <v>19.08</v>
       </c>
       <c r="C43" t="n">
         <v>-2</v>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.31</v>
+        <v>18.55</v>
       </c>
       <c r="C44" t="n">
         <v>-2</v>
@@ -1321,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30.78</v>
+        <v>18.02</v>
       </c>
       <c r="C45" t="n">
         <v>-2</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.24</v>
+        <v>17.48</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.71</v>
+        <v>16.95</v>
       </c>
       <c r="C47" t="n">
         <v>-2</v>
@@ -1381,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.18</v>
+        <v>16.42</v>
       </c>
       <c r="C48" t="n">
         <v>-2</v>
@@ -1401,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>28.64</v>
+        <v>15.88</v>
       </c>
       <c r="C49" t="n">
         <v>-2</v>
@@ -1421,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28.11</v>
+        <v>15.35</v>
       </c>
       <c r="C50" t="n">
         <v>-2</v>
@@ -1441,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>27.58</v>
+        <v>14.82</v>
       </c>
       <c r="C51" t="n">
         <v>-2</v>
@@ -1461,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>27.04</v>
+        <v>14.28</v>
       </c>
       <c r="C52" t="n">
         <v>-2</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.51</v>
+        <v>13.75</v>
       </c>
       <c r="C53" t="n">
         <v>-2</v>
@@ -1501,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.98</v>
+        <v>13.22</v>
       </c>
       <c r="C54" t="n">
         <v>-2</v>
@@ -1521,16 +1521,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.44</v>
+        <v>12.69</v>
       </c>
       <c r="C55" t="n">
-        <v>-2</v>
+        <v>-2.06</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -1541,16 +1541,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>24.91</v>
+        <v>12.15</v>
       </c>
       <c r="C56" t="n">
-        <v>-2</v>
+        <v>-2.08</v>
       </c>
       <c r="D56" t="n">
         <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -1561,16 +1561,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>24.38</v>
+        <v>11.62</v>
       </c>
       <c r="C57" t="n">
-        <v>-2</v>
+        <v>-2.07</v>
       </c>
       <c r="D57" t="n">
         <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23.84</v>
+        <v>11.09</v>
       </c>
       <c r="C58" t="n">
-        <v>-2</v>
+        <v>-2.04</v>
       </c>
       <c r="D58" t="n">
         <v>8</v>
@@ -1601,16 +1601,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23.31</v>
+        <v>10.56</v>
       </c>
       <c r="C59" t="n">
-        <v>-2</v>
+        <v>-1.99</v>
       </c>
       <c r="D59" t="n">
         <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22.78</v>
+        <v>10.03</v>
       </c>
       <c r="C60" t="n">
-        <v>-2</v>
+        <v>-1.91</v>
       </c>
       <c r="D60" t="n">
         <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -1641,16 +1641,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22.24</v>
+        <v>9.5</v>
       </c>
       <c r="C61" t="n">
-        <v>-2</v>
+        <v>-1.82</v>
       </c>
       <c r="D61" t="n">
         <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21.71</v>
+        <v>8.98</v>
       </c>
       <c r="C62" t="n">
-        <v>-2</v>
+        <v>-1.71</v>
       </c>
       <c r="D62" t="n">
         <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -1681,16 +1681,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21.18</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>-2</v>
+        <v>-1.58</v>
       </c>
       <c r="D63" t="n">
         <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>3.14</v>
+        <v>3.01</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -1701,16 +1701,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20.64</v>
+        <v>7.95</v>
       </c>
       <c r="C64" t="n">
-        <v>-2</v>
+        <v>-1.44</v>
       </c>
       <c r="D64" t="n">
         <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>3.14</v>
+        <v>2.98</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -1721,16 +1721,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20.11</v>
+        <v>7.45</v>
       </c>
       <c r="C65" t="n">
-        <v>-2</v>
+        <v>-1.27</v>
       </c>
       <c r="D65" t="n">
         <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -1741,16 +1741,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19.58</v>
+        <v>6.95</v>
       </c>
       <c r="C66" t="n">
-        <v>-2</v>
+        <v>-1.08</v>
       </c>
       <c r="D66" t="n">
         <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>3.14</v>
+        <v>2.91</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19.04</v>
+        <v>6.45</v>
       </c>
       <c r="C67" t="n">
-        <v>-2</v>
+        <v>-0.88</v>
       </c>
       <c r="D67" t="n">
         <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>3.14</v>
+        <v>2.88</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -1781,16 +1781,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18.51</v>
+        <v>5.97</v>
       </c>
       <c r="C68" t="n">
-        <v>-2</v>
+        <v>-0.66</v>
       </c>
       <c r="D68" t="n">
         <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>3.14</v>
+        <v>2.84</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -1801,16 +1801,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17.98</v>
+        <v>5.49</v>
       </c>
       <c r="C69" t="n">
-        <v>-2</v>
+        <v>-0.42</v>
       </c>
       <c r="D69" t="n">
         <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>3.14</v>
+        <v>2.81</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17.44</v>
+        <v>5.02</v>
       </c>
       <c r="C70" t="n">
-        <v>-2</v>
+        <v>-0.16</v>
       </c>
       <c r="D70" t="n">
         <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>3.14</v>
+        <v>2.77</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16.91</v>
+        <v>4.57</v>
       </c>
       <c r="C71" t="n">
-        <v>-2</v>
+        <v>0.12</v>
       </c>
       <c r="D71" t="n">
         <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>3.14</v>
+        <v>2.73</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -1861,16 +1861,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16.38</v>
+        <v>4.12</v>
       </c>
       <c r="C72" t="n">
-        <v>-2</v>
+        <v>0.41</v>
       </c>
       <c r="D72" t="n">
         <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>3.14</v>
+        <v>2.7</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.84</v>
+        <v>3.69</v>
       </c>
       <c r="C73" t="n">
-        <v>-2</v>
+        <v>0.72</v>
       </c>
       <c r="D73" t="n">
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>3.14</v>
+        <v>2.66</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.31</v>
+        <v>3.27</v>
       </c>
       <c r="C74" t="n">
-        <v>-2</v>
+        <v>1.05</v>
       </c>
       <c r="D74" t="n">
         <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>3.14</v>
+        <v>2.62</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -1921,16 +1921,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.78</v>
+        <v>2.86</v>
       </c>
       <c r="C75" t="n">
-        <v>-2</v>
+        <v>1.4</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>3.14</v>
+        <v>2.58</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.24</v>
+        <v>2.47</v>
       </c>
       <c r="C76" t="n">
-        <v>-2</v>
+        <v>1.76</v>
       </c>
       <c r="D76" t="n">
         <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>3.14</v>
+        <v>2.54</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13.71</v>
+        <v>2.1</v>
       </c>
       <c r="C77" t="n">
-        <v>-2</v>
+        <v>2.14</v>
       </c>
       <c r="D77" t="n">
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>3.14</v>
+        <v>2.5</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -1981,16 +1981,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.18</v>
+        <v>1.73</v>
       </c>
       <c r="C78" t="n">
-        <v>-2</v>
+        <v>2.53</v>
       </c>
       <c r="D78" t="n">
         <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>3.14</v>
+        <v>2.46</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.64</v>
+        <v>1.39</v>
       </c>
       <c r="C79" t="n">
-        <v>-2.06</v>
+        <v>2.93</v>
       </c>
       <c r="D79" t="n">
         <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>3.16</v>
+        <v>2.42</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -2021,16 +2021,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.11</v>
+        <v>1.06</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.07</v>
+        <v>3.36</v>
       </c>
       <c r="D80" t="n">
         <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>3.17</v>
+        <v>2.38</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2041,16 +2041,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.58</v>
+        <v>0.75</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.07</v>
+        <v>3.79</v>
       </c>
       <c r="D81" t="n">
         <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>3.16</v>
+        <v>2.34</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.05</v>
+        <v>0.46</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.03</v>
+        <v>4.24</v>
       </c>
       <c r="D82" t="n">
         <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>3.14</v>
+        <v>2.3</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10.52</v>
+        <v>0.19</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.98</v>
+        <v>4.69</v>
       </c>
       <c r="D83" t="n">
         <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>3.12</v>
+        <v>2.26</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -2101,16 +2101,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.99</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.91</v>
+        <v>5.16</v>
       </c>
       <c r="D84" t="n">
         <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>3.09</v>
+        <v>2.22</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2121,16 +2121,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.460000000000001</v>
+        <v>-0.3</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.81</v>
+        <v>5.64</v>
       </c>
       <c r="D85" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>3.07</v>
+        <v>2.18</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2141,58 +2141,18 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>8.970000000000001</v>
+        <v>-0.52</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.71</v>
+        <v>6.12</v>
       </c>
       <c r="D86" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>3.04</v>
+        <v>2.14</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-1.59</v>
-      </c>
-      <c r="D87" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E87" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.48</v>
-      </c>
-      <c r="D88" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2207,7 +2167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2255,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>57.24</v>
+        <v>48.38</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -2275,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>56.58</v>
+        <v>47.72</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -2295,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>55.93</v>
+        <v>47.06</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -2315,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>55.28</v>
+        <v>46.42</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -2335,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>54.64</v>
+        <v>45.78</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -2355,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>45.14</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -2375,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.37</v>
+        <v>44.51</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -2395,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>52.74</v>
+        <v>43.88</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -2415,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>52.11</v>
+        <v>43.25</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -2435,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>51.49</v>
+        <v>42.63</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -2455,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>50.87</v>
+        <v>42.01</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -2475,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>50.25</v>
+        <v>41.39</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -2495,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>49.64</v>
+        <v>40.77</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -2515,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>49.02</v>
+        <v>40.16</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -2535,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>48.41</v>
+        <v>39.55</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -2555,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>47.8</v>
+        <v>38.93</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -2575,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>47.19</v>
+        <v>38.32</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -2595,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>46.58</v>
+        <v>37.72</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -2615,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>45.97</v>
+        <v>37.11</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -2635,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>45.36</v>
+        <v>36.5</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -2655,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>44.76</v>
+        <v>35.89</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -2675,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>44.15</v>
+        <v>35.29</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -2695,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>43.55</v>
+        <v>34.68</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -2715,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>42.94</v>
+        <v>34.08</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -2735,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>42.34</v>
+        <v>33.48</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -2755,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>41.73</v>
+        <v>32.87</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -2775,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.13</v>
+        <v>32.27</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -2795,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>40.53</v>
+        <v>31.67</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -2815,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>39.93</v>
+        <v>31.06</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -2835,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>39.32</v>
+        <v>30.46</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -2855,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>38.72</v>
+        <v>29.86</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -2875,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>38.12</v>
+        <v>29.26</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -2895,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>37.52</v>
+        <v>28.66</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -2915,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>36.92</v>
+        <v>28.05</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -2935,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>36.32</v>
+        <v>27.45</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -2955,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>35.71</v>
+        <v>26.85</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -2975,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>35.11</v>
+        <v>26.25</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -2995,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>34.51</v>
+        <v>25.65</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -3015,10 +2975,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>33.91</v>
+        <v>25.05</v>
       </c>
       <c r="D40" t="n">
-        <v>9.01</v>
+        <v>8.51</v>
       </c>
       <c r="E40" t="n">
         <v>-1.57</v>
@@ -3035,10 +2995,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>33.31</v>
+        <v>24.48</v>
       </c>
       <c r="D41" t="n">
-        <v>9.01</v>
+        <v>8.06</v>
       </c>
       <c r="E41" t="n">
         <v>-1.57</v>
@@ -3055,10 +3015,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>32.71</v>
+        <v>23.94</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>7.67</v>
       </c>
       <c r="E42" t="n">
         <v>-1.57</v>
@@ -3075,10 +3035,10 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>32.11</v>
+        <v>23.43</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>7.32</v>
       </c>
       <c r="E43" t="n">
         <v>-1.57</v>
@@ -3095,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>31.51</v>
+        <v>22.95</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>7</v>
       </c>
       <c r="E44" t="n">
         <v>-1.57</v>
@@ -3115,10 +3075,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>30.91</v>
+        <v>22.48</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>6.73</v>
       </c>
       <c r="E45" t="n">
         <v>-1.57</v>
@@ -3135,10 +3095,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>30.31</v>
+        <v>22.03</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>5.98</v>
       </c>
       <c r="E46" t="n">
         <v>-1.57</v>
@@ -3155,10 +3115,10 @@
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>29.71</v>
+        <v>21.63</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E47" t="n">
         <v>-1.57</v>
@@ -3175,10 +3135,10 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>29.11</v>
+        <v>21.28</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E48" t="n">
         <v>-1.57</v>
@@ -3195,10 +3155,10 @@
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>28.51</v>
+        <v>20.96</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E49" t="n">
         <v>-1.57</v>
@@ -3215,10 +3175,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>27.91</v>
+        <v>20.68</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E50" t="n">
         <v>-1.57</v>
@@ -3235,10 +3195,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>27.31</v>
+        <v>20.43</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E51" t="n">
         <v>-1.57</v>
@@ -3255,10 +3215,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>26.71</v>
+        <v>20.21</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E52" t="n">
         <v>-1.57</v>
@@ -3275,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>26.11</v>
+        <v>20.02</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E53" t="n">
         <v>-1.57</v>
@@ -3295,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>25.51</v>
+        <v>19.84</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E54" t="n">
         <v>-1.57</v>
@@ -3315,10 +3275,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>24.91</v>
+        <v>19.69</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E55" t="n">
         <v>-1.57</v>
@@ -3335,10 +3295,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>24.31</v>
+        <v>19.55</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E56" t="n">
         <v>-1.57</v>
@@ -3355,10 +3315,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>23.71</v>
+        <v>19.43</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E57" t="n">
         <v>-1.57</v>
@@ -3375,10 +3335,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>23.11</v>
+        <v>19.32</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E58" t="n">
         <v>-1.57</v>
@@ -3395,10 +3355,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>22.51</v>
+        <v>19.22</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E59" t="n">
         <v>-1.57</v>
@@ -3415,10 +3375,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>21.91</v>
+        <v>19.13</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>1.65</v>
       </c>
       <c r="E60" t="n">
         <v>-1.57</v>
@@ -3435,10 +3395,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>21.31</v>
+        <v>19.02</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>1.97</v>
       </c>
       <c r="E61" t="n">
         <v>-1.57</v>
@@ -3455,10 +3415,10 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>20.71</v>
+        <v>18.89</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="E62" t="n">
         <v>-1.57</v>
@@ -3475,10 +3435,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>20.11</v>
+        <v>18.74</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="E63" t="n">
         <v>-1.57</v>
@@ -3495,10 +3455,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>19.51</v>
+        <v>18.58</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>3.22</v>
       </c>
       <c r="E64" t="n">
         <v>-1.57</v>
@@ -3515,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>18.91</v>
+        <v>18.36</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>3.86</v>
       </c>
       <c r="E65" t="n">
         <v>-1.57</v>
@@ -3535,10 +3495,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>18.31</v>
+        <v>18.1</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>4.43</v>
       </c>
       <c r="E66" t="n">
         <v>-1.57</v>
@@ -3555,10 +3515,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>17.71</v>
+        <v>17.81</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>4.94</v>
       </c>
       <c r="E67" t="n">
         <v>-1.57</v>
@@ -3575,10 +3535,10 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>17.11</v>
+        <v>17.48</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>5.39</v>
       </c>
       <c r="E68" t="n">
         <v>-1.57</v>
@@ -3595,10 +3555,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>16.51</v>
+        <v>17.12</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>5.79</v>
       </c>
       <c r="E69" t="n">
         <v>-1.57</v>
@@ -3615,10 +3575,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>15.91</v>
+        <v>16.73</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>6.15</v>
       </c>
       <c r="E70" t="n">
         <v>-1.57</v>
@@ -3635,10 +3595,10 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>15.31</v>
+        <v>16.32</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>6.47</v>
       </c>
       <c r="E71" t="n">
         <v>-1.57</v>
@@ -3655,10 +3615,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>14.71</v>
+        <v>15.89</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>6.75</v>
       </c>
       <c r="E72" t="n">
         <v>-1.57</v>
@@ -3675,10 +3635,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>14.11</v>
+        <v>15.44</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E73" t="n">
         <v>-1.57</v>
@@ -3695,10 +3655,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>13.51</v>
+        <v>14.98</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>7.22</v>
       </c>
       <c r="E74" t="n">
         <v>-1.57</v>
@@ -3715,10 +3675,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>12.91</v>
+        <v>14.49</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>7.42</v>
       </c>
       <c r="E75" t="n">
         <v>-1.57</v>
@@ -3732,16 +3692,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>12.31</v>
+        <v>14</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>7.59</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.55</v>
+        <v>-1.57</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3752,16 +3712,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>11.71</v>
+        <v>13.49</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>7.75</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.56</v>
+        <v>-1.57</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -3772,16 +3732,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="C78" t="n">
-        <v>11.11</v>
+        <v>12.98</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>7.89</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.57</v>
+        <v>-1.54</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3792,16 +3752,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.97</v>
+        <v>2.09</v>
       </c>
       <c r="C79" t="n">
-        <v>10.51</v>
+        <v>12.46</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>8.01</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.59</v>
+        <v>-1.54</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -3812,16 +3772,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="C80" t="n">
-        <v>9.92</v>
+        <v>11.92</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.62</v>
+        <v>-1.55</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3832,16 +3792,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="C81" t="n">
-        <v>9.32</v>
+        <v>11.38</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.65</v>
+        <v>-1.56</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3852,16 +3812,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.65</v>
+        <v>2.03</v>
       </c>
       <c r="C82" t="n">
-        <v>8.74</v>
+        <v>10.83</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>8.31</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.68</v>
+        <v>-1.58</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -3872,16 +3832,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.5</v>
+        <v>1.96</v>
       </c>
       <c r="C83" t="n">
-        <v>8.16</v>
+        <v>10.28</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.72</v>
+        <v>-1.6</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3892,16 +3852,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.32</v>
+        <v>1.87</v>
       </c>
       <c r="C84" t="n">
-        <v>7.59</v>
+        <v>9.73</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.76</v>
+        <v>-1.63</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -3912,16 +3872,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.12</v>
+        <v>1.77</v>
       </c>
       <c r="C85" t="n">
-        <v>7.02</v>
+        <v>9.18</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>8.51</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.79</v>
+        <v>-1.66</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3932,58 +3892,18 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.89</v>
+        <v>1.64</v>
       </c>
       <c r="C86" t="n">
-        <v>6.47</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>8.57</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.83</v>
+        <v>-1.69</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="C87" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-1.87</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="C88" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="D88" t="n">
-        <v>9</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.91</v>
-      </c>
-      <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3998,7 +3918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4043,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-52.34</v>
+        <v>-55.3</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -4063,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-51.68</v>
+        <v>-54.64</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4083,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-51.03</v>
+        <v>-53.99</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4103,7 +4023,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-50.38</v>
+        <v>-53.34</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -4123,7 +4043,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-49.74</v>
+        <v>-52.7</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -4143,7 +4063,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-49.1</v>
+        <v>-52.06</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -4163,7 +4083,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-48.47</v>
+        <v>-51.43</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -4183,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-47.84</v>
+        <v>-50.8</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4203,7 +4123,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-47.21</v>
+        <v>-50.17</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -4223,7 +4143,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-46.59</v>
+        <v>-49.55</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -4243,7 +4163,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-45.97</v>
+        <v>-48.93</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -4263,7 +4183,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-45.35</v>
+        <v>-48.31</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -4283,7 +4203,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-44.74</v>
+        <v>-47.7</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4303,7 +4223,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-44.12</v>
+        <v>-47.08</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -4323,7 +4243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-43.51</v>
+        <v>-46.47</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4343,7 +4263,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-42.9</v>
+        <v>-45.86</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4363,7 +4283,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-42.29</v>
+        <v>-45.25</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -4383,7 +4303,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-41.68</v>
+        <v>-44.64</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4403,7 +4323,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-41.07</v>
+        <v>-44.03</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4423,7 +4343,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-40.46</v>
+        <v>-43.42</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4443,7 +4363,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-39.86</v>
+        <v>-42.82</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -4463,7 +4383,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-39.25</v>
+        <v>-42.21</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -4483,7 +4403,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-38.65</v>
+        <v>-41.61</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -4503,7 +4423,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-38.04</v>
+        <v>-41</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -4523,7 +4443,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-37.44</v>
+        <v>-40.4</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -4543,7 +4463,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-36.83</v>
+        <v>-39.79</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -4563,7 +4483,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-36.23</v>
+        <v>-39.19</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4583,7 +4503,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-35.63</v>
+        <v>-38.59</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -4603,7 +4523,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-35.03</v>
+        <v>-37.99</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -4623,7 +4543,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-34.42</v>
+        <v>-37.38</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -4643,7 +4563,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-33.82</v>
+        <v>-36.78</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -4663,7 +4583,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-33.22</v>
+        <v>-36.18</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -4683,7 +4603,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-32.62</v>
+        <v>-35.58</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -4703,7 +4623,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-32.02</v>
+        <v>-34.98</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -4723,7 +4643,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-31.42</v>
+        <v>-34.38</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -4743,7 +4663,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-30.81</v>
+        <v>-33.77</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -4763,7 +4683,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-30.21</v>
+        <v>-33.17</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -4783,7 +4703,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-29.61</v>
+        <v>-32.57</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -4803,7 +4723,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-29.01</v>
+        <v>-31.97</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -4823,7 +4743,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-28.41</v>
+        <v>-31.37</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
@@ -4843,7 +4763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-27.81</v>
+        <v>-30.77</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -4863,7 +4783,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-27.21</v>
+        <v>-30.17</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
@@ -4883,7 +4803,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-26.61</v>
+        <v>-29.57</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -4903,7 +4823,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-26.01</v>
+        <v>-28.97</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -4923,7 +4843,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-25.41</v>
+        <v>-28.37</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -4943,7 +4863,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-24.81</v>
+        <v>-27.77</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -4963,7 +4883,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-24.21</v>
+        <v>-27.17</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
@@ -4983,7 +4903,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-23.61</v>
+        <v>-26.57</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
@@ -5003,7 +4923,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-23.01</v>
+        <v>-25.97</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -5023,13 +4943,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-22.41</v>
+        <v>-25.37</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E51" t="n">
         <v>-0</v>
@@ -5043,13 +4963,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-21.81</v>
+        <v>-24.8</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E52" t="n">
         <v>-0</v>
@@ -5063,13 +4983,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-21.21</v>
+        <v>-24.26</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E53" t="n">
         <v>-0</v>
@@ -5083,13 +5003,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-20.61</v>
+        <v>-23.75</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E54" t="n">
         <v>-0</v>
@@ -5103,13 +5023,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-20.01</v>
+        <v>-23.26</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E55" t="n">
         <v>-0</v>
@@ -5123,13 +5043,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-19.41</v>
+        <v>-22.8</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E56" t="n">
         <v>-0</v>
@@ -5143,13 +5063,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-18.81</v>
+        <v>-22.35</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>5.97</v>
       </c>
       <c r="E57" t="n">
         <v>-0</v>
@@ -5163,13 +5083,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-18.21</v>
+        <v>-21.95</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E58" t="n">
         <v>-0</v>
@@ -5183,13 +5103,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-17.61</v>
+        <v>-21.6</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E59" t="n">
         <v>-0</v>
@@ -5203,13 +5123,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-17.01</v>
+        <v>-21.28</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E60" t="n">
         <v>-0</v>
@@ -5223,13 +5143,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-16.41</v>
+        <v>-21</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E61" t="n">
         <v>-0</v>
@@ -5243,13 +5163,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-15.81</v>
+        <v>-20.75</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E62" t="n">
         <v>-0</v>
@@ -5263,13 +5183,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-15.21</v>
+        <v>-20.53</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E63" t="n">
         <v>-0</v>
@@ -5283,13 +5203,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-14.61</v>
+        <v>-20.34</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E64" t="n">
         <v>-0</v>
@@ -5303,13 +5223,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-14.01</v>
+        <v>-20.16</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E65" t="n">
         <v>-0</v>
@@ -5323,13 +5243,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-13.41</v>
+        <v>-20.01</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E66" t="n">
         <v>-0</v>
@@ -5343,16 +5263,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-12.81</v>
+        <v>-19.87</v>
       </c>
       <c r="C67" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E67" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -5363,16 +5283,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-12.21</v>
+        <v>-19.75</v>
       </c>
       <c r="C68" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -5383,16 +5303,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-11.61</v>
+        <v>-19.64</v>
       </c>
       <c r="C69" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -5403,13 +5323,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-11.01</v>
+        <v>-19.54</v>
       </c>
       <c r="C70" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E70" t="n">
         <v>-0</v>
@@ -5423,16 +5343,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-10.41</v>
+        <v>-19.45</v>
       </c>
       <c r="C71" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.03</v>
+        <v>-0</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -5443,16 +5363,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-9.82</v>
+        <v>-19.38</v>
       </c>
       <c r="C72" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.05</v>
+        <v>-0</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -5463,16 +5383,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-9.23</v>
+        <v>-19.31</v>
       </c>
       <c r="C73" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.09</v>
+        <v>-0</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -5483,16 +5403,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-8.65</v>
+        <v>-19.25</v>
       </c>
       <c r="C74" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.12</v>
+        <v>-0</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -5503,16 +5423,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-8.07</v>
+        <v>-19.2</v>
       </c>
       <c r="C75" t="n">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.16</v>
+        <v>-0</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -5523,16 +5443,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-7.5</v>
+        <v>-19.15</v>
       </c>
       <c r="C76" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.19</v>
+        <v>-0</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -5543,16 +5463,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-6.93</v>
+        <v>-19.11</v>
       </c>
       <c r="C77" t="n">
-        <v>1.09</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.23</v>
+        <v>-0</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -5563,16 +5483,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-6.38</v>
+        <v>-19.07</v>
       </c>
       <c r="C78" t="n">
-        <v>0.86</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.27</v>
+        <v>-0</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -5583,16 +5503,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-5.84</v>
+        <v>-19.03</v>
       </c>
       <c r="C79" t="n">
-        <v>0.61</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.31</v>
+        <v>-0</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -5603,16 +5523,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-5.3</v>
+        <v>-19</v>
       </c>
       <c r="C80" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -5623,16 +5543,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-4.78</v>
+        <v>-18.98</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.39</v>
+        <v>-0</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -5643,16 +5563,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-4.28</v>
+        <v>-18.95</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.43</v>
+        <v>0</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -5663,16 +5583,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-3.79</v>
+        <v>-18.93</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.64</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.48</v>
+        <v>-0</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -5683,16 +5603,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-3.31</v>
+        <v>-18.91</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.01</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.52</v>
+        <v>0</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -5703,16 +5623,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.86</v>
+        <v>-18.9</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -5723,58 +5643,18 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-2.42</v>
+        <v>-18.88</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.81</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.61</v>
+        <v>0</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-2.23</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.65</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="D88" t="n">
-        <v>9</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5789,7 +5669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5837,7 +5717,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-50.38</v>
+        <v>-50.14</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -5857,7 +5737,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-49.72</v>
+        <v>-49.48</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -5877,7 +5757,7 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-49.06</v>
+        <v>-48.83</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -5897,7 +5777,7 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-48.42</v>
+        <v>-48.18</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -5917,7 +5797,7 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-47.77</v>
+        <v>-47.54</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -5937,7 +5817,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-47.14</v>
+        <v>-46.91</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -5957,7 +5837,7 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-46.51</v>
+        <v>-46.27</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -5977,7 +5857,7 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-45.88</v>
+        <v>-45.64</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -5997,7 +5877,7 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-45.25</v>
+        <v>-45.02</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -6017,7 +5897,7 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-44.63</v>
+        <v>-44.4</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -6037,7 +5917,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-44.01</v>
+        <v>-43.77</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -6057,7 +5937,7 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-43.39</v>
+        <v>-43.16</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -6077,7 +5957,7 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-42.77</v>
+        <v>-42.54</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -6097,7 +5977,7 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-42.16</v>
+        <v>-41.93</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -6117,7 +5997,7 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-41.54</v>
+        <v>-41.31</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -6137,7 +6017,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-40.93</v>
+        <v>-40.7</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -6157,7 +6037,7 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-40.32</v>
+        <v>-40.09</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -6177,7 +6057,7 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-39.71</v>
+        <v>-39.48</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -6197,7 +6077,7 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-39.11</v>
+        <v>-38.87</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -6217,7 +6097,7 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-38.5</v>
+        <v>-38.27</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -6237,7 +6117,7 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-37.89</v>
+        <v>-37.66</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -6257,7 +6137,7 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-37.29</v>
+        <v>-37.06</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -6277,7 +6157,7 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-36.68</v>
+        <v>-36.45</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -6297,7 +6177,7 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-36.08</v>
+        <v>-35.85</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -6317,7 +6197,7 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-35.47</v>
+        <v>-35.24</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -6337,7 +6217,7 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-34.87</v>
+        <v>-34.64</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -6357,7 +6237,7 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-34.27</v>
+        <v>-34.04</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -6377,7 +6257,7 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-33.66</v>
+        <v>-33.43</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -6397,7 +6277,7 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-33.06</v>
+        <v>-32.83</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -6417,7 +6297,7 @@
         <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-32.46</v>
+        <v>-32.23</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -6437,7 +6317,7 @@
         <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-31.86</v>
+        <v>-31.63</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -6457,7 +6337,7 @@
         <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-31.26</v>
+        <v>-31.02</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -6477,7 +6357,7 @@
         <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-30.65</v>
+        <v>-30.42</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -6497,7 +6377,7 @@
         <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-30.05</v>
+        <v>-29.82</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -6517,7 +6397,7 @@
         <v>-2</v>
       </c>
       <c r="C36" t="n">
-        <v>-29.45</v>
+        <v>-29.22</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -6537,7 +6417,7 @@
         <v>-2</v>
       </c>
       <c r="C37" t="n">
-        <v>-28.85</v>
+        <v>-28.62</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -6557,7 +6437,7 @@
         <v>-2</v>
       </c>
       <c r="C38" t="n">
-        <v>-28.25</v>
+        <v>-28.02</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -6577,7 +6457,7 @@
         <v>-2</v>
       </c>
       <c r="C39" t="n">
-        <v>-27.65</v>
+        <v>-27.42</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -6597,7 +6477,7 @@
         <v>-2</v>
       </c>
       <c r="C40" t="n">
-        <v>-27.05</v>
+        <v>-26.82</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -6617,7 +6497,7 @@
         <v>-2</v>
       </c>
       <c r="C41" t="n">
-        <v>-26.45</v>
+        <v>-26.22</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -6637,7 +6517,7 @@
         <v>-2</v>
       </c>
       <c r="C42" t="n">
-        <v>-25.85</v>
+        <v>-25.62</v>
       </c>
       <c r="D42" t="n">
         <v>9.01</v>
@@ -6657,10 +6537,10 @@
         <v>-2</v>
       </c>
       <c r="C43" t="n">
-        <v>-25.25</v>
+        <v>-25.01</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>8.51</v>
       </c>
       <c r="E43" t="n">
         <v>1.57</v>
@@ -6677,10 +6557,10 @@
         <v>-2</v>
       </c>
       <c r="C44" t="n">
-        <v>-24.65</v>
+        <v>-24.45</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>8.06</v>
       </c>
       <c r="E44" t="n">
         <v>1.57</v>
@@ -6697,10 +6577,10 @@
         <v>-2</v>
       </c>
       <c r="C45" t="n">
-        <v>-24.05</v>
+        <v>-23.91</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>7.67</v>
       </c>
       <c r="E45" t="n">
         <v>1.57</v>
@@ -6717,10 +6597,10 @@
         <v>-2</v>
       </c>
       <c r="C46" t="n">
-        <v>-23.44</v>
+        <v>-23.4</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E46" t="n">
         <v>1.57</v>
@@ -6737,10 +6617,10 @@
         <v>-2</v>
       </c>
       <c r="C47" t="n">
-        <v>-22.84</v>
+        <v>-22.91</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
         <v>1.57</v>
@@ -6757,10 +6637,10 @@
         <v>-2</v>
       </c>
       <c r="C48" t="n">
-        <v>-22.24</v>
+        <v>-22.44</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E48" t="n">
         <v>1.57</v>
@@ -6777,10 +6657,10 @@
         <v>-2</v>
       </c>
       <c r="C49" t="n">
-        <v>-21.64</v>
+        <v>-22</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>5.98</v>
       </c>
       <c r="E49" t="n">
         <v>1.57</v>
@@ -6797,10 +6677,10 @@
         <v>-2</v>
       </c>
       <c r="C50" t="n">
-        <v>-21.04</v>
+        <v>-21.6</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E50" t="n">
         <v>1.57</v>
@@ -6817,10 +6697,10 @@
         <v>-2</v>
       </c>
       <c r="C51" t="n">
-        <v>-20.44</v>
+        <v>-21.24</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E51" t="n">
         <v>1.57</v>
@@ -6837,10 +6717,10 @@
         <v>-2</v>
       </c>
       <c r="C52" t="n">
-        <v>-19.84</v>
+        <v>-20.93</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E52" t="n">
         <v>1.57</v>
@@ -6857,10 +6737,10 @@
         <v>-2</v>
       </c>
       <c r="C53" t="n">
-        <v>-19.24</v>
+        <v>-20.65</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E53" t="n">
         <v>1.57</v>
@@ -6877,10 +6757,10 @@
         <v>-2</v>
       </c>
       <c r="C54" t="n">
-        <v>-18.64</v>
+        <v>-20.4</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E54" t="n">
         <v>1.57</v>
@@ -6897,10 +6777,10 @@
         <v>-2</v>
       </c>
       <c r="C55" t="n">
-        <v>-18.04</v>
+        <v>-20.18</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E55" t="n">
         <v>1.57</v>
@@ -6917,10 +6797,10 @@
         <v>-2</v>
       </c>
       <c r="C56" t="n">
-        <v>-17.44</v>
+        <v>-19.98</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E56" t="n">
         <v>1.57</v>
@@ -6937,10 +6817,10 @@
         <v>-2</v>
       </c>
       <c r="C57" t="n">
-        <v>-16.84</v>
+        <v>-19.81</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E57" t="n">
         <v>1.57</v>
@@ -6957,10 +6837,10 @@
         <v>-2</v>
       </c>
       <c r="C58" t="n">
-        <v>-16.24</v>
+        <v>-19.65</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E58" t="n">
         <v>1.57</v>
@@ -6977,10 +6857,10 @@
         <v>-2</v>
       </c>
       <c r="C59" t="n">
-        <v>-15.64</v>
+        <v>-19.51</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E59" t="n">
         <v>1.57</v>
@@ -6997,10 +6877,10 @@
         <v>-2</v>
       </c>
       <c r="C60" t="n">
-        <v>-15.04</v>
+        <v>-19.39</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E60" t="n">
         <v>1.57</v>
@@ -7017,10 +6897,10 @@
         <v>-2</v>
       </c>
       <c r="C61" t="n">
-        <v>-14.44</v>
+        <v>-19.28</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E61" t="n">
         <v>1.57</v>
@@ -7037,10 +6917,10 @@
         <v>-2</v>
       </c>
       <c r="C62" t="n">
-        <v>-13.84</v>
+        <v>-19.19</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E62" t="n">
         <v>1.57</v>
@@ -7057,10 +6937,10 @@
         <v>-2</v>
       </c>
       <c r="C63" t="n">
-        <v>-13.24</v>
+        <v>-19.1</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E63" t="n">
         <v>1.57</v>
@@ -7074,16 +6954,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C64" t="n">
-        <v>-12.64</v>
+        <v>-19.02</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E64" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -7094,16 +6974,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-2.07</v>
+        <v>-2</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.05</v>
+        <v>-18.95</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E65" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -7114,16 +6994,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.45</v>
+        <v>-18.89</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -7134,16 +7014,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2.02</v>
+        <v>-2</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.85</v>
+        <v>-18.84</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E67" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -7154,16 +7034,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="C68" t="n">
-        <v>-10.25</v>
+        <v>-18.79</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E68" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -7174,16 +7054,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.85</v>
+        <v>-2</v>
       </c>
       <c r="C69" t="n">
-        <v>-9.66</v>
+        <v>-18.75</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E69" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -7194,16 +7074,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.74</v>
+        <v>-2</v>
       </c>
       <c r="C70" t="n">
-        <v>-9.07</v>
+        <v>-18.71</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E70" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -7214,16 +7094,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.59</v>
+        <v>-2</v>
       </c>
       <c r="C71" t="n">
-        <v>-8.49</v>
+        <v>-18.68</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E71" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -7234,16 +7114,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.43</v>
+        <v>-2</v>
       </c>
       <c r="C72" t="n">
-        <v>-7.91</v>
+        <v>-18.65</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E72" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -7254,16 +7134,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.24</v>
+        <v>-2</v>
       </c>
       <c r="C73" t="n">
-        <v>-7.34</v>
+        <v>-18.62</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E73" t="n">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -7274,16 +7154,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.03</v>
+        <v>-2</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.78</v>
+        <v>-18.6</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E74" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -7294,16 +7174,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.79</v>
+        <v>-2</v>
       </c>
       <c r="C75" t="n">
-        <v>-6.23</v>
+        <v>-18.58</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E75" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -7314,16 +7194,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.53</v>
+        <v>-2</v>
       </c>
       <c r="C76" t="n">
-        <v>-5.69</v>
+        <v>-18.56</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E76" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -7334,16 +7214,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.24</v>
+        <v>-2</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.16</v>
+        <v>-18.54</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E77" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -7354,16 +7234,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.06</v>
+        <v>-2</v>
       </c>
       <c r="C78" t="n">
-        <v>-4.64</v>
+        <v>-18.53</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E78" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -7374,16 +7254,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.39</v>
+        <v>-2</v>
       </c>
       <c r="C79" t="n">
-        <v>-4.14</v>
+        <v>-18.51</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.17</v>
       </c>
       <c r="E79" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -7394,16 +7274,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.74</v>
+        <v>-2</v>
       </c>
       <c r="C80" t="n">
-        <v>-3.66</v>
+        <v>-18.5</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="E80" t="n">
-        <v>1.08</v>
+        <v>1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -7414,16 +7294,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.12</v>
+        <v>-2</v>
       </c>
       <c r="C81" t="n">
-        <v>-3.19</v>
+        <v>-18.49</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.14</v>
       </c>
       <c r="E81" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -7434,16 +7314,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.51</v>
+        <v>-2</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.73</v>
+        <v>-18.48</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.12</v>
       </c>
       <c r="E82" t="n">
-        <v>0.99</v>
+        <v>1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -7454,16 +7334,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.92</v>
+        <v>-2</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.3</v>
+        <v>-18.48</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.61</v>
       </c>
       <c r="E83" t="n">
-        <v>0.95</v>
+        <v>1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -7474,16 +7354,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.36</v>
+        <v>-2</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.88</v>
+        <v>-18.44</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>1.04</v>
       </c>
       <c r="E84" t="n">
-        <v>0.91</v>
+        <v>1.57</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -7494,16 +7374,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.81</v>
+        <v>-2</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.49</v>
+        <v>-18.37</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>1.43</v>
       </c>
       <c r="E85" t="n">
-        <v>0.86</v>
+        <v>1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -7514,58 +7394,18 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.28</v>
+        <v>-2</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.12</v>
+        <v>-18.27</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>1.77</v>
       </c>
       <c r="E86" t="n">
-        <v>0.82</v>
+        <v>1.57</v>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="D87" t="n">
-        <v>9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="D88" t="n">
-        <v>9</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="F88" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Data/Excel/FCFS/8.xlsx
+++ b/Data/Excel/FCFS/8.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40.95</v>
+        <v>53.08</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40.42</v>
+        <v>52.54</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.88</v>
+        <v>52.01</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39.35</v>
+        <v>51.48</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38.82</v>
+        <v>50.94</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.28</v>
+        <v>50.41</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.75</v>
+        <v>49.88</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.22</v>
+        <v>49.34</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>36.68</v>
+        <v>48.81</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36.15</v>
+        <v>48.28</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>35.62</v>
+        <v>47.74</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35.08</v>
+        <v>47.21</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>34.55</v>
+        <v>46.68</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.02</v>
+        <v>46.14</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>33.48</v>
+        <v>45.61</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>32.95</v>
+        <v>45.08</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32.42</v>
+        <v>44.54</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>31.88</v>
+        <v>44.01</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>31.35</v>
+        <v>43.48</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30.82</v>
+        <v>42.94</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>30.28</v>
+        <v>42.41</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>29.75</v>
+        <v>41.88</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.22</v>
+        <v>41.34</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28.68</v>
+        <v>40.81</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28.15</v>
+        <v>40.28</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>27.62</v>
+        <v>39.74</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>27.08</v>
+        <v>39.21</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26.55</v>
+        <v>38.68</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26.02</v>
+        <v>38.14</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>25.48</v>
+        <v>37.61</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>24.95</v>
+        <v>37.08</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>24.42</v>
+        <v>36.54</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23.88</v>
+        <v>36.01</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23.35</v>
+        <v>35.48</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>22.82</v>
+        <v>34.94</v>
       </c>
       <c r="C36" t="n">
         <v>-2</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>22.28</v>
+        <v>34.41</v>
       </c>
       <c r="C37" t="n">
         <v>-2</v>
@@ -1181,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21.75</v>
+        <v>33.88</v>
       </c>
       <c r="C38" t="n">
         <v>-2</v>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21.22</v>
+        <v>33.34</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20.68</v>
+        <v>32.81</v>
       </c>
       <c r="C40" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20.15</v>
+        <v>32.28</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
@@ -1261,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19.62</v>
+        <v>31.74</v>
       </c>
       <c r="C42" t="n">
         <v>-2</v>
@@ -1281,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19.08</v>
+        <v>31.21</v>
       </c>
       <c r="C43" t="n">
         <v>-2</v>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18.55</v>
+        <v>30.68</v>
       </c>
       <c r="C44" t="n">
         <v>-2</v>
@@ -1321,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18.02</v>
+        <v>30.14</v>
       </c>
       <c r="C45" t="n">
         <v>-2</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17.48</v>
+        <v>29.61</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16.95</v>
+        <v>29.08</v>
       </c>
       <c r="C47" t="n">
         <v>-2</v>
@@ -1381,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16.42</v>
+        <v>28.54</v>
       </c>
       <c r="C48" t="n">
         <v>-2</v>
@@ -1401,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.88</v>
+        <v>28.01</v>
       </c>
       <c r="C49" t="n">
         <v>-2</v>
@@ -1421,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.35</v>
+        <v>27.48</v>
       </c>
       <c r="C50" t="n">
         <v>-2</v>
@@ -1441,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14.82</v>
+        <v>26.94</v>
       </c>
       <c r="C51" t="n">
         <v>-2</v>
@@ -1461,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14.28</v>
+        <v>26.41</v>
       </c>
       <c r="C52" t="n">
         <v>-2</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.75</v>
+        <v>25.88</v>
       </c>
       <c r="C53" t="n">
         <v>-2</v>
@@ -1501,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13.22</v>
+        <v>25.34</v>
       </c>
       <c r="C54" t="n">
         <v>-2</v>
@@ -1521,16 +1521,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.69</v>
+        <v>24.81</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -1541,16 +1541,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.15</v>
+        <v>24.28</v>
       </c>
       <c r="C56" t="n">
-        <v>-2.08</v>
+        <v>-2</v>
       </c>
       <c r="D56" t="n">
         <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -1561,16 +1561,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.62</v>
+        <v>23.74</v>
       </c>
       <c r="C57" t="n">
-        <v>-2.07</v>
+        <v>-2</v>
       </c>
       <c r="D57" t="n">
         <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.09</v>
+        <v>23.21</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.04</v>
+        <v>-2</v>
       </c>
       <c r="D58" t="n">
         <v>8</v>
@@ -1601,16 +1601,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10.56</v>
+        <v>22.68</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.99</v>
+        <v>-2</v>
       </c>
       <c r="D59" t="n">
         <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10.03</v>
+        <v>22.14</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.91</v>
+        <v>-2</v>
       </c>
       <c r="D60" t="n">
         <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -1641,16 +1641,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.5</v>
+        <v>21.61</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.82</v>
+        <v>-2</v>
       </c>
       <c r="D61" t="n">
         <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>3.07</v>
+        <v>3.14</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8.98</v>
+        <v>21.08</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.71</v>
+        <v>-2</v>
       </c>
       <c r="D62" t="n">
         <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -1681,16 +1681,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.460000000000001</v>
+        <v>20.54</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.58</v>
+        <v>-2</v>
       </c>
       <c r="D63" t="n">
         <v>8</v>
       </c>
       <c r="E63" t="n">
-        <v>3.01</v>
+        <v>3.14</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -1701,16 +1701,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.95</v>
+        <v>20.01</v>
       </c>
       <c r="C64" t="n">
-        <v>-1.44</v>
+        <v>-2</v>
       </c>
       <c r="D64" t="n">
         <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>2.98</v>
+        <v>3.14</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -1721,16 +1721,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.45</v>
+        <v>19.48</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.27</v>
+        <v>-2</v>
       </c>
       <c r="D65" t="n">
         <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>2.95</v>
+        <v>3.14</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -1741,16 +1741,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.95</v>
+        <v>18.94</v>
       </c>
       <c r="C66" t="n">
-        <v>-1.08</v>
+        <v>-2</v>
       </c>
       <c r="D66" t="n">
         <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>2.91</v>
+        <v>3.14</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.45</v>
+        <v>18.41</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.88</v>
+        <v>-2</v>
       </c>
       <c r="D67" t="n">
         <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>2.88</v>
+        <v>3.14</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -1781,16 +1781,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.97</v>
+        <v>17.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.66</v>
+        <v>-2</v>
       </c>
       <c r="D68" t="n">
         <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>2.84</v>
+        <v>3.14</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -1801,16 +1801,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.49</v>
+        <v>17.34</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.42</v>
+        <v>-2</v>
       </c>
       <c r="D69" t="n">
         <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>2.81</v>
+        <v>3.14</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.02</v>
+        <v>16.81</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.16</v>
+        <v>-2</v>
       </c>
       <c r="D70" t="n">
         <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>2.77</v>
+        <v>3.14</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.57</v>
+        <v>16.28</v>
       </c>
       <c r="C71" t="n">
-        <v>0.12</v>
+        <v>-2</v>
       </c>
       <c r="D71" t="n">
         <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>2.73</v>
+        <v>3.14</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -1861,16 +1861,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.12</v>
+        <v>15.74</v>
       </c>
       <c r="C72" t="n">
-        <v>0.41</v>
+        <v>-2</v>
       </c>
       <c r="D72" t="n">
         <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>2.7</v>
+        <v>3.14</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.69</v>
+        <v>15.21</v>
       </c>
       <c r="C73" t="n">
-        <v>0.72</v>
+        <v>-2</v>
       </c>
       <c r="D73" t="n">
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>2.66</v>
+        <v>3.14</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.27</v>
+        <v>14.68</v>
       </c>
       <c r="C74" t="n">
-        <v>1.05</v>
+        <v>-2</v>
       </c>
       <c r="D74" t="n">
         <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>2.62</v>
+        <v>3.14</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -1921,16 +1921,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.86</v>
+        <v>14.14</v>
       </c>
       <c r="C75" t="n">
-        <v>1.4</v>
+        <v>-2</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>2.58</v>
+        <v>3.14</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.47</v>
+        <v>13.61</v>
       </c>
       <c r="C76" t="n">
-        <v>1.76</v>
+        <v>-2</v>
       </c>
       <c r="D76" t="n">
         <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>2.54</v>
+        <v>3.14</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.1</v>
+        <v>13.08</v>
       </c>
       <c r="C77" t="n">
-        <v>2.14</v>
+        <v>-2</v>
       </c>
       <c r="D77" t="n">
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>2.5</v>
+        <v>3.14</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -1981,16 +1981,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.73</v>
+        <v>12.55</v>
       </c>
       <c r="C78" t="n">
-        <v>2.53</v>
+        <v>-2.05</v>
       </c>
       <c r="D78" t="n">
         <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>2.46</v>
+        <v>3.16</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.39</v>
+        <v>12.01</v>
       </c>
       <c r="C79" t="n">
-        <v>2.93</v>
+        <v>-2.07</v>
       </c>
       <c r="D79" t="n">
         <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>2.42</v>
+        <v>3.16</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -2021,16 +2021,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.06</v>
+        <v>11.48</v>
       </c>
       <c r="C80" t="n">
-        <v>3.36</v>
+        <v>-2.06</v>
       </c>
       <c r="D80" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="E80" t="n">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2041,16 +2041,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.75</v>
+        <v>10.97</v>
       </c>
       <c r="C81" t="n">
-        <v>3.79</v>
+        <v>-2.02</v>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="E81" t="n">
-        <v>2.34</v>
+        <v>3.14</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.46</v>
+        <v>10.5</v>
       </c>
       <c r="C82" t="n">
-        <v>4.24</v>
+        <v>-1.97</v>
       </c>
       <c r="D82" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="E82" t="n">
-        <v>2.3</v>
+        <v>3.12</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.19</v>
+        <v>10.05</v>
       </c>
       <c r="C83" t="n">
-        <v>4.69</v>
+        <v>-1.91</v>
       </c>
       <c r="D83" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="E83" t="n">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -2101,16 +2101,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.07000000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>5.16</v>
+        <v>-1.84</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
-        <v>2.22</v>
+        <v>3.08</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2121,16 +2121,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.3</v>
+        <v>9.23</v>
       </c>
       <c r="C85" t="n">
-        <v>5.64</v>
+        <v>-1.76</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="E85" t="n">
-        <v>2.18</v>
+        <v>3.06</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2141,18 +2141,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.52</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>6.12</v>
+        <v>-1.68</v>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>5.2</v>
       </c>
       <c r="E86" t="n">
-        <v>2.14</v>
+        <v>3.04</v>
       </c>
       <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2167,7 +2187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2215,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>48.38</v>
+        <v>59.74</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -2235,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>47.72</v>
+        <v>59.08</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -2255,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>47.06</v>
+        <v>58.43</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -2275,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>46.42</v>
+        <v>57.78</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -2295,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>45.78</v>
+        <v>57.14</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -2315,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>45.14</v>
+        <v>56.51</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -2335,7 +2355,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>44.51</v>
+        <v>55.87</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -2355,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>43.88</v>
+        <v>55.24</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -2375,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>43.25</v>
+        <v>54.62</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -2395,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>42.63</v>
+        <v>53.99</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -2415,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>42.01</v>
+        <v>53.37</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -2435,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>41.39</v>
+        <v>52.76</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -2455,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>40.77</v>
+        <v>52.14</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -2475,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>40.16</v>
+        <v>51.53</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -2495,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>39.55</v>
+        <v>50.91</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -2515,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>38.93</v>
+        <v>50.3</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -2535,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.32</v>
+        <v>49.69</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -2555,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>37.72</v>
+        <v>49.08</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -2575,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>37.11</v>
+        <v>48.47</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -2595,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>36.5</v>
+        <v>47.87</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -2615,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>35.89</v>
+        <v>47.26</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -2635,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>35.29</v>
+        <v>46.65</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -2655,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>34.68</v>
+        <v>46.05</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -2675,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>34.08</v>
+        <v>45.45</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -2695,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>33.48</v>
+        <v>44.84</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -2715,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>32.87</v>
+        <v>44.24</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -2735,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>32.27</v>
+        <v>43.63</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -2755,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>31.67</v>
+        <v>43.03</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -2775,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>31.06</v>
+        <v>42.43</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -2795,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>30.46</v>
+        <v>41.83</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -2815,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>29.86</v>
+        <v>41.23</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -2835,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>29.26</v>
+        <v>40.62</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -2855,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>28.66</v>
+        <v>40.02</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -2875,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>28.05</v>
+        <v>39.42</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -2895,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>27.45</v>
+        <v>38.82</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -2915,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>26.85</v>
+        <v>38.22</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -2935,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>26.25</v>
+        <v>37.62</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -2955,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>25.65</v>
+        <v>37.02</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -2975,10 +2995,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>25.05</v>
+        <v>36.42</v>
       </c>
       <c r="D40" t="n">
-        <v>8.51</v>
+        <v>9.01</v>
       </c>
       <c r="E40" t="n">
         <v>-1.57</v>
@@ -2995,10 +3015,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>24.48</v>
+        <v>35.82</v>
       </c>
       <c r="D41" t="n">
-        <v>8.06</v>
+        <v>9.01</v>
       </c>
       <c r="E41" t="n">
         <v>-1.57</v>
@@ -3015,10 +3035,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>23.94</v>
+        <v>35.21</v>
       </c>
       <c r="D42" t="n">
-        <v>7.67</v>
+        <v>9.01</v>
       </c>
       <c r="E42" t="n">
         <v>-1.57</v>
@@ -3035,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>23.43</v>
+        <v>34.61</v>
       </c>
       <c r="D43" t="n">
-        <v>7.32</v>
+        <v>9.01</v>
       </c>
       <c r="E43" t="n">
         <v>-1.57</v>
@@ -3055,10 +3075,10 @@
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>22.95</v>
+        <v>34.01</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>9.01</v>
       </c>
       <c r="E44" t="n">
         <v>-1.57</v>
@@ -3075,10 +3095,10 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>22.48</v>
+        <v>33.41</v>
       </c>
       <c r="D45" t="n">
-        <v>6.73</v>
+        <v>9.01</v>
       </c>
       <c r="E45" t="n">
         <v>-1.57</v>
@@ -3095,10 +3115,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>22.03</v>
+        <v>32.81</v>
       </c>
       <c r="D46" t="n">
-        <v>5.98</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
         <v>-1.57</v>
@@ -3115,10 +3135,10 @@
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>21.63</v>
+        <v>32.21</v>
       </c>
       <c r="D47" t="n">
-        <v>5.31</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
         <v>-1.57</v>
@@ -3135,10 +3155,10 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>21.28</v>
+        <v>31.61</v>
       </c>
       <c r="D48" t="n">
-        <v>4.72</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
         <v>-1.57</v>
@@ -3155,10 +3175,10 @@
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>20.96</v>
+        <v>31.01</v>
       </c>
       <c r="D49" t="n">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="E49" t="n">
         <v>-1.57</v>
@@ -3175,10 +3195,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>20.68</v>
+        <v>30.41</v>
       </c>
       <c r="D50" t="n">
-        <v>3.73</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
         <v>-1.57</v>
@@ -3195,10 +3215,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>20.43</v>
+        <v>29.81</v>
       </c>
       <c r="D51" t="n">
-        <v>3.32</v>
+        <v>8.5</v>
       </c>
       <c r="E51" t="n">
         <v>-1.57</v>
@@ -3215,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>20.21</v>
+        <v>29.24</v>
       </c>
       <c r="D52" t="n">
-        <v>2.95</v>
+        <v>8.06</v>
       </c>
       <c r="E52" t="n">
         <v>-1.57</v>
@@ -3235,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>20.02</v>
+        <v>28.71</v>
       </c>
       <c r="D53" t="n">
-        <v>2.62</v>
+        <v>7.66</v>
       </c>
       <c r="E53" t="n">
         <v>-1.57</v>
@@ -3255,10 +3275,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>19.84</v>
+        <v>28.2</v>
       </c>
       <c r="D54" t="n">
-        <v>2.33</v>
+        <v>7.31</v>
       </c>
       <c r="E54" t="n">
         <v>-1.57</v>
@@ -3275,10 +3295,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>19.69</v>
+        <v>27.71</v>
       </c>
       <c r="D55" t="n">
-        <v>2.07</v>
+        <v>7</v>
       </c>
       <c r="E55" t="n">
         <v>-1.57</v>
@@ -3295,10 +3315,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>19.55</v>
+        <v>27.24</v>
       </c>
       <c r="D56" t="n">
-        <v>1.84</v>
+        <v>6.72</v>
       </c>
       <c r="E56" t="n">
         <v>-1.57</v>
@@ -3315,10 +3335,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>19.43</v>
+        <v>26.79</v>
       </c>
       <c r="D57" t="n">
-        <v>1.64</v>
+        <v>5.97</v>
       </c>
       <c r="E57" t="n">
         <v>-1.57</v>
@@ -3335,10 +3355,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>19.32</v>
+        <v>26.4</v>
       </c>
       <c r="D58" t="n">
-        <v>1.45</v>
+        <v>5.31</v>
       </c>
       <c r="E58" t="n">
         <v>-1.57</v>
@@ -3355,10 +3375,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>19.22</v>
+        <v>26.04</v>
       </c>
       <c r="D59" t="n">
-        <v>1.29</v>
+        <v>4.72</v>
       </c>
       <c r="E59" t="n">
         <v>-1.57</v>
@@ -3375,10 +3395,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>19.13</v>
+        <v>25.73</v>
       </c>
       <c r="D60" t="n">
-        <v>1.65</v>
+        <v>4.2</v>
       </c>
       <c r="E60" t="n">
         <v>-1.57</v>
@@ -3395,10 +3415,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>19.02</v>
+        <v>25.45</v>
       </c>
       <c r="D61" t="n">
-        <v>1.97</v>
+        <v>3.73</v>
       </c>
       <c r="E61" t="n">
         <v>-1.57</v>
@@ -3415,10 +3435,10 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>18.89</v>
+        <v>25.2</v>
       </c>
       <c r="D62" t="n">
-        <v>2.25</v>
+        <v>3.32</v>
       </c>
       <c r="E62" t="n">
         <v>-1.57</v>
@@ -3435,10 +3455,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>18.74</v>
+        <v>24.98</v>
       </c>
       <c r="D63" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="E63" t="n">
         <v>-1.57</v>
@@ -3455,10 +3475,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>18.58</v>
+        <v>24.78</v>
       </c>
       <c r="D64" t="n">
-        <v>3.22</v>
+        <v>2.62</v>
       </c>
       <c r="E64" t="n">
         <v>-1.57</v>
@@ -3475,10 +3495,10 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>18.36</v>
+        <v>24.61</v>
       </c>
       <c r="D65" t="n">
-        <v>3.86</v>
+        <v>2.33</v>
       </c>
       <c r="E65" t="n">
         <v>-1.57</v>
@@ -3495,10 +3515,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>18.1</v>
+        <v>24.45</v>
       </c>
       <c r="D66" t="n">
-        <v>4.43</v>
+        <v>2.07</v>
       </c>
       <c r="E66" t="n">
         <v>-1.57</v>
@@ -3515,10 +3535,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>17.81</v>
+        <v>24.31</v>
       </c>
       <c r="D67" t="n">
-        <v>4.94</v>
+        <v>1.84</v>
       </c>
       <c r="E67" t="n">
         <v>-1.57</v>
@@ -3535,10 +3555,10 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>17.48</v>
+        <v>24.19</v>
       </c>
       <c r="D68" t="n">
-        <v>5.39</v>
+        <v>1.64</v>
       </c>
       <c r="E68" t="n">
         <v>-1.57</v>
@@ -3555,10 +3575,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>17.12</v>
+        <v>24.08</v>
       </c>
       <c r="D69" t="n">
-        <v>5.79</v>
+        <v>1.45</v>
       </c>
       <c r="E69" t="n">
         <v>-1.57</v>
@@ -3575,10 +3595,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>16.73</v>
+        <v>23.99</v>
       </c>
       <c r="D70" t="n">
-        <v>6.15</v>
+        <v>1.29</v>
       </c>
       <c r="E70" t="n">
         <v>-1.57</v>
@@ -3595,10 +3615,10 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>16.32</v>
+        <v>23.9</v>
       </c>
       <c r="D71" t="n">
-        <v>6.47</v>
+        <v>1.15</v>
       </c>
       <c r="E71" t="n">
         <v>-1.57</v>
@@ -3615,10 +3635,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>15.89</v>
+        <v>23.82</v>
       </c>
       <c r="D72" t="n">
-        <v>6.75</v>
+        <v>1.02</v>
       </c>
       <c r="E72" t="n">
         <v>-1.57</v>
@@ -3635,10 +3655,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>15.44</v>
+        <v>23.75</v>
       </c>
       <c r="D73" t="n">
-        <v>7</v>
+        <v>0.91</v>
       </c>
       <c r="E73" t="n">
         <v>-1.57</v>
@@ -3655,10 +3675,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>14.98</v>
+        <v>23.69</v>
       </c>
       <c r="D74" t="n">
-        <v>7.22</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E74" t="n">
         <v>-1.57</v>
@@ -3675,10 +3695,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>14.49</v>
+        <v>23.64</v>
       </c>
       <c r="D75" t="n">
-        <v>7.42</v>
+        <v>0.72</v>
       </c>
       <c r="E75" t="n">
         <v>-1.57</v>
@@ -3695,10 +3715,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>14</v>
+        <v>23.59</v>
       </c>
       <c r="D76" t="n">
-        <v>7.59</v>
+        <v>0.64</v>
       </c>
       <c r="E76" t="n">
         <v>-1.57</v>
@@ -3715,10 +3735,10 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>13.49</v>
+        <v>23.55</v>
       </c>
       <c r="D77" t="n">
-        <v>7.75</v>
+        <v>0.57</v>
       </c>
       <c r="E77" t="n">
         <v>-1.57</v>
@@ -3732,16 +3752,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>12.98</v>
+        <v>23.51</v>
       </c>
       <c r="D78" t="n">
-        <v>7.89</v>
+        <v>0.5</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.54</v>
+        <v>-1.57</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3752,16 +3772,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>12.46</v>
+        <v>23.48</v>
       </c>
       <c r="D79" t="n">
-        <v>8.01</v>
+        <v>0.45</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.54</v>
+        <v>-1.57</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -3772,16 +3792,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>11.92</v>
+        <v>23.45</v>
       </c>
       <c r="D80" t="n">
-        <v>8.119999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.55</v>
+        <v>-1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3792,16 +3812,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>11.38</v>
+        <v>23.42</v>
       </c>
       <c r="D81" t="n">
-        <v>8.220000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.56</v>
+        <v>-1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3812,16 +3832,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>10.83</v>
+        <v>23.4</v>
       </c>
       <c r="D82" t="n">
-        <v>8.31</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.58</v>
+        <v>-1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -3832,16 +3852,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>10.28</v>
+        <v>23.34</v>
       </c>
       <c r="D83" t="n">
-        <v>8.380000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.6</v>
+        <v>-1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3852,16 +3872,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>9.73</v>
+        <v>23.26</v>
       </c>
       <c r="D84" t="n">
-        <v>8.449999999999999</v>
+        <v>1.59</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.63</v>
+        <v>-1.57</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -3872,16 +3892,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>9.18</v>
+        <v>23.16</v>
       </c>
       <c r="D85" t="n">
-        <v>8.51</v>
+        <v>1.91</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.66</v>
+        <v>-1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3892,18 +3912,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>8.630000000000001</v>
+        <v>23.03</v>
       </c>
       <c r="D86" t="n">
-        <v>8.57</v>
+        <v>2.2</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.69</v>
+        <v>-1.57</v>
       </c>
       <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3918,7 +3958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-55.3</v>
+        <v>-57.53</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -3983,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-54.64</v>
+        <v>-56.87</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4003,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-53.99</v>
+        <v>-56.22</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4023,7 +4063,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-53.34</v>
+        <v>-55.57</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -4043,7 +4083,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-52.7</v>
+        <v>-54.93</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -4063,7 +4103,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-52.06</v>
+        <v>-54.29</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -4083,7 +4123,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-51.43</v>
+        <v>-53.66</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -4103,7 +4143,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-50.8</v>
+        <v>-53.03</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4123,7 +4163,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-50.17</v>
+        <v>-52.4</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -4143,7 +4183,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-49.55</v>
+        <v>-51.78</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -4163,7 +4203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-48.93</v>
+        <v>-51.16</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -4183,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-48.31</v>
+        <v>-50.54</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -4203,7 +4243,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-47.7</v>
+        <v>-49.93</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4223,7 +4263,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-47.08</v>
+        <v>-49.31</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -4243,7 +4283,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-46.47</v>
+        <v>-48.7</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4263,7 +4303,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-45.86</v>
+        <v>-48.09</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4283,7 +4323,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-45.25</v>
+        <v>-47.48</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -4303,7 +4343,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-44.64</v>
+        <v>-46.87</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4323,7 +4363,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-44.03</v>
+        <v>-46.26</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4343,7 +4383,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-43.42</v>
+        <v>-45.65</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4363,7 +4403,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-42.82</v>
+        <v>-45.05</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -4383,7 +4423,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-42.21</v>
+        <v>-44.44</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -4403,7 +4443,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-41.61</v>
+        <v>-43.84</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -4423,7 +4463,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-41</v>
+        <v>-43.23</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -4443,7 +4483,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-40.4</v>
+        <v>-42.63</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -4463,7 +4503,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-39.79</v>
+        <v>-42.02</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -4483,7 +4523,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-39.19</v>
+        <v>-41.42</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4503,7 +4543,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-38.59</v>
+        <v>-40.82</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -4523,7 +4563,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-37.99</v>
+        <v>-40.22</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -4543,7 +4583,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-37.38</v>
+        <v>-39.61</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -4563,7 +4603,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-36.78</v>
+        <v>-39.01</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -4583,7 +4623,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-36.18</v>
+        <v>-38.41</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -4603,7 +4643,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-35.58</v>
+        <v>-37.81</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -4623,7 +4663,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-34.98</v>
+        <v>-37.21</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -4643,7 +4683,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-34.38</v>
+        <v>-36.61</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -4663,7 +4703,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-33.77</v>
+        <v>-36</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -4683,7 +4723,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-33.17</v>
+        <v>-35.4</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -4703,7 +4743,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-32.57</v>
+        <v>-34.8</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -4723,7 +4763,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-31.97</v>
+        <v>-34.2</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -4743,7 +4783,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-31.37</v>
+        <v>-33.6</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
@@ -4763,7 +4803,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-30.77</v>
+        <v>-33</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
@@ -4783,7 +4823,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-30.17</v>
+        <v>-32.4</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
@@ -4803,7 +4843,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-29.57</v>
+        <v>-31.8</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
@@ -4823,7 +4863,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-28.97</v>
+        <v>-31.2</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
@@ -4843,7 +4883,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-28.37</v>
+        <v>-30.6</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -4863,13 +4903,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-27.77</v>
+        <v>-30</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E47" t="n">
         <v>-0</v>
@@ -4883,13 +4923,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-27.17</v>
+        <v>-29.43</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E48" t="n">
         <v>-0</v>
@@ -4903,13 +4943,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-26.57</v>
+        <v>-28.89</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E49" t="n">
         <v>-0</v>
@@ -4923,13 +4963,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-25.97</v>
+        <v>-28.38</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E50" t="n">
         <v>-0</v>
@@ -4943,13 +4983,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-25.37</v>
+        <v>-27.9</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
         <v>-0</v>
@@ -4963,13 +5003,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-24.8</v>
+        <v>-27.43</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>8.06</v>
+        <v>6.72</v>
       </c>
       <c r="E52" t="n">
         <v>-0</v>
@@ -4983,13 +5023,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-24.26</v>
+        <v>-26.98</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>7.66</v>
+        <v>5.98</v>
       </c>
       <c r="E53" t="n">
         <v>-0</v>
@@ -5003,13 +5043,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-23.75</v>
+        <v>-26.58</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>7.31</v>
+        <v>5.31</v>
       </c>
       <c r="E54" t="n">
         <v>-0</v>
@@ -5023,13 +5063,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-23.26</v>
+        <v>-26.23</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>4.72</v>
       </c>
       <c r="E55" t="n">
         <v>-0</v>
@@ -5043,13 +5083,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-22.8</v>
+        <v>-25.91</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>6.72</v>
+        <v>4.2</v>
       </c>
       <c r="E56" t="n">
         <v>-0</v>
@@ -5063,13 +5103,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-22.35</v>
+        <v>-25.63</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5.97</v>
+        <v>3.73</v>
       </c>
       <c r="E57" t="n">
         <v>-0</v>
@@ -5083,13 +5123,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-21.95</v>
+        <v>-25.39</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>5.31</v>
+        <v>3.32</v>
       </c>
       <c r="E58" t="n">
         <v>-0</v>
@@ -5103,13 +5143,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-21.6</v>
+        <v>-25.16</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>4.72</v>
+        <v>2.95</v>
       </c>
       <c r="E59" t="n">
         <v>-0</v>
@@ -5123,13 +5163,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-21.28</v>
+        <v>-24.97</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="E60" t="n">
         <v>-0</v>
@@ -5143,13 +5183,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-21</v>
+        <v>-24.79</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>3.73</v>
+        <v>2.33</v>
       </c>
       <c r="E61" t="n">
         <v>-0</v>
@@ -5163,13 +5203,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-20.75</v>
+        <v>-24.64</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>3.32</v>
+        <v>2.07</v>
       </c>
       <c r="E62" t="n">
         <v>-0</v>
@@ -5183,13 +5223,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-20.53</v>
+        <v>-24.5</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>2.95</v>
+        <v>1.84</v>
       </c>
       <c r="E63" t="n">
         <v>-0</v>
@@ -5203,13 +5243,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-20.34</v>
+        <v>-24.38</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>2.62</v>
+        <v>1.64</v>
       </c>
       <c r="E64" t="n">
         <v>-0</v>
@@ -5223,13 +5263,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-20.16</v>
+        <v>-24.27</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>2.33</v>
+        <v>1.45</v>
       </c>
       <c r="E65" t="n">
         <v>-0</v>
@@ -5243,13 +5283,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-20.01</v>
+        <v>-24.17</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>2.07</v>
+        <v>1.29</v>
       </c>
       <c r="E66" t="n">
         <v>-0</v>
@@ -5263,13 +5303,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-19.87</v>
+        <v>-24.09</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>1.84</v>
+        <v>1.15</v>
       </c>
       <c r="E67" t="n">
         <v>-0</v>
@@ -5283,13 +5323,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-19.75</v>
+        <v>-24.01</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>1.64</v>
+        <v>1.02</v>
       </c>
       <c r="E68" t="n">
         <v>-0</v>
@@ -5303,13 +5343,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-19.64</v>
+        <v>-23.94</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>1.45</v>
+        <v>0.91</v>
       </c>
       <c r="E69" t="n">
         <v>-0</v>
@@ -5323,13 +5363,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-19.54</v>
+        <v>-23.88</v>
       </c>
       <c r="C70" t="n">
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1.29</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E70" t="n">
         <v>-0</v>
@@ -5343,13 +5383,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-19.45</v>
+        <v>-23.83</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>1.15</v>
+        <v>0.72</v>
       </c>
       <c r="E71" t="n">
         <v>-0</v>
@@ -5363,13 +5403,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-19.38</v>
+        <v>-23.78</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>1.02</v>
+        <v>0.64</v>
       </c>
       <c r="E72" t="n">
         <v>-0</v>
@@ -5383,16 +5423,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-19.31</v>
+        <v>-23.74</v>
       </c>
       <c r="C73" t="n">
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>0.91</v>
+        <v>0.57</v>
       </c>
       <c r="E73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -5403,13 +5443,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-19.25</v>
+        <v>-23.7</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E74" t="n">
         <v>-0</v>
@@ -5423,16 +5463,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-19.2</v>
+        <v>-23.66</v>
       </c>
       <c r="C75" t="n">
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>0.72</v>
+        <v>0.45</v>
       </c>
       <c r="E75" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -5443,13 +5483,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-19.15</v>
+        <v>-23.64</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="E76" t="n">
         <v>-0</v>
@@ -5463,16 +5503,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-19.11</v>
+        <v>-23.61</v>
       </c>
       <c r="C77" t="n">
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>0.57</v>
+        <v>0.35</v>
       </c>
       <c r="E77" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -5483,13 +5523,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-19.07</v>
+        <v>-23.58</v>
       </c>
       <c r="C78" t="n">
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="E78" t="n">
         <v>-0</v>
@@ -5503,16 +5543,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-19.03</v>
+        <v>-23.56</v>
       </c>
       <c r="C79" t="n">
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
       <c r="E79" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -5523,16 +5563,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-19</v>
+        <v>-23.55</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -5543,16 +5583,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-18.98</v>
+        <v>-23.53</v>
       </c>
       <c r="C81" t="n">
         <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="E81" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -5563,16 +5603,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-18.95</v>
+        <v>-23.51</v>
       </c>
       <c r="C82" t="n">
         <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -5583,16 +5623,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-18.93</v>
+        <v>-23.5</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="E83" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -5603,16 +5643,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-18.91</v>
+        <v>-23.49</v>
       </c>
       <c r="C84" t="n">
         <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -5623,16 +5663,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-18.9</v>
+        <v>-23.48</v>
       </c>
       <c r="C85" t="n">
         <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="E85" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -5643,18 +5683,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-18.88</v>
+        <v>-23.47</v>
       </c>
       <c r="C86" t="n">
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-23.46</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5669,7 +5729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5717,7 +5777,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-50.14</v>
+        <v>-47.71</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -5737,7 +5797,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-49.48</v>
+        <v>-47.06</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -5757,7 +5817,7 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-48.83</v>
+        <v>-46.4</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -5777,7 +5837,7 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-48.18</v>
+        <v>-45.76</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -5797,7 +5857,7 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-47.54</v>
+        <v>-45.11</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -5817,7 +5877,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-46.91</v>
+        <v>-44.48</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -5837,7 +5897,7 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-46.27</v>
+        <v>-43.84</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -5857,7 +5917,7 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-45.64</v>
+        <v>-43.22</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -5877,7 +5937,7 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-45.02</v>
+        <v>-42.59</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -5897,7 +5957,7 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-44.4</v>
+        <v>-41.97</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -5917,7 +5977,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-43.77</v>
+        <v>-41.35</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -5937,7 +5997,7 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-43.16</v>
+        <v>-40.73</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -5957,7 +6017,7 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-42.54</v>
+        <v>-40.11</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -5977,7 +6037,7 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-41.93</v>
+        <v>-39.5</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -5997,7 +6057,7 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-41.31</v>
+        <v>-38.88</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -6017,7 +6077,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-40.7</v>
+        <v>-38.27</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -6037,7 +6097,7 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-40.09</v>
+        <v>-37.66</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -6057,7 +6117,7 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-39.48</v>
+        <v>-37.05</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -6077,7 +6137,7 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-38.87</v>
+        <v>-36.45</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -6097,7 +6157,7 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-38.27</v>
+        <v>-35.84</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -6117,7 +6177,7 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-37.66</v>
+        <v>-35.23</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -6137,7 +6197,7 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-37.06</v>
+        <v>-34.63</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -6157,7 +6217,7 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-36.45</v>
+        <v>-34.02</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -6177,7 +6237,7 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-35.85</v>
+        <v>-33.42</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -6197,7 +6257,7 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-35.24</v>
+        <v>-32.81</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -6217,7 +6277,7 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-34.64</v>
+        <v>-32.21</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -6237,7 +6297,7 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-34.04</v>
+        <v>-31.61</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -6257,7 +6317,7 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-33.43</v>
+        <v>-31</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -6277,7 +6337,7 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-32.83</v>
+        <v>-30.4</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -6297,7 +6357,7 @@
         <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-32.23</v>
+        <v>-29.8</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -6317,7 +6377,7 @@
         <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-31.63</v>
+        <v>-29.2</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -6337,7 +6397,7 @@
         <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-31.02</v>
+        <v>-28.6</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -6357,7 +6417,7 @@
         <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-30.42</v>
+        <v>-27.99</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -6377,7 +6437,7 @@
         <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-29.82</v>
+        <v>-27.39</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -6397,7 +6457,7 @@
         <v>-2</v>
       </c>
       <c r="C36" t="n">
-        <v>-29.22</v>
+        <v>-26.79</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -6417,7 +6477,7 @@
         <v>-2</v>
       </c>
       <c r="C37" t="n">
-        <v>-28.62</v>
+        <v>-26.19</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -6437,7 +6497,7 @@
         <v>-2</v>
       </c>
       <c r="C38" t="n">
-        <v>-28.02</v>
+        <v>-25.59</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -6457,7 +6517,7 @@
         <v>-2</v>
       </c>
       <c r="C39" t="n">
-        <v>-27.42</v>
+        <v>-24.99</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -6477,7 +6537,7 @@
         <v>-2</v>
       </c>
       <c r="C40" t="n">
-        <v>-26.82</v>
+        <v>-24.39</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -6497,7 +6557,7 @@
         <v>-2</v>
       </c>
       <c r="C41" t="n">
-        <v>-26.22</v>
+        <v>-23.79</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -6517,7 +6577,7 @@
         <v>-2</v>
       </c>
       <c r="C42" t="n">
-        <v>-25.62</v>
+        <v>-23.19</v>
       </c>
       <c r="D42" t="n">
         <v>9.01</v>
@@ -6537,10 +6597,10 @@
         <v>-2</v>
       </c>
       <c r="C43" t="n">
-        <v>-25.01</v>
+        <v>-22.59</v>
       </c>
       <c r="D43" t="n">
-        <v>8.51</v>
+        <v>9.01</v>
       </c>
       <c r="E43" t="n">
         <v>1.57</v>
@@ -6557,10 +6617,10 @@
         <v>-2</v>
       </c>
       <c r="C44" t="n">
-        <v>-24.45</v>
+        <v>-21.99</v>
       </c>
       <c r="D44" t="n">
-        <v>8.06</v>
+        <v>9.01</v>
       </c>
       <c r="E44" t="n">
         <v>1.57</v>
@@ -6577,10 +6637,10 @@
         <v>-2</v>
       </c>
       <c r="C45" t="n">
-        <v>-23.91</v>
+        <v>-21.38</v>
       </c>
       <c r="D45" t="n">
-        <v>7.67</v>
+        <v>9.01</v>
       </c>
       <c r="E45" t="n">
         <v>1.57</v>
@@ -6597,10 +6657,10 @@
         <v>-2</v>
       </c>
       <c r="C46" t="n">
-        <v>-23.4</v>
+        <v>-20.78</v>
       </c>
       <c r="D46" t="n">
-        <v>7.31</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
         <v>1.57</v>
@@ -6617,10 +6677,10 @@
         <v>-2</v>
       </c>
       <c r="C47" t="n">
-        <v>-22.91</v>
+        <v>-20.18</v>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
         <v>1.57</v>
@@ -6637,10 +6697,10 @@
         <v>-2</v>
       </c>
       <c r="C48" t="n">
-        <v>-22.44</v>
+        <v>-19.58</v>
       </c>
       <c r="D48" t="n">
-        <v>6.72</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
         <v>1.57</v>
@@ -6657,10 +6717,10 @@
         <v>-2</v>
       </c>
       <c r="C49" t="n">
-        <v>-22</v>
+        <v>-18.98</v>
       </c>
       <c r="D49" t="n">
-        <v>5.98</v>
+        <v>9</v>
       </c>
       <c r="E49" t="n">
         <v>1.57</v>
@@ -6677,10 +6737,10 @@
         <v>-2</v>
       </c>
       <c r="C50" t="n">
-        <v>-21.6</v>
+        <v>-18.38</v>
       </c>
       <c r="D50" t="n">
-        <v>5.31</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
         <v>1.57</v>
@@ -6697,10 +6757,10 @@
         <v>-2</v>
       </c>
       <c r="C51" t="n">
-        <v>-21.24</v>
+        <v>-17.78</v>
       </c>
       <c r="D51" t="n">
-        <v>4.72</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
         <v>1.57</v>
@@ -6717,10 +6777,10 @@
         <v>-2</v>
       </c>
       <c r="C52" t="n">
-        <v>-20.93</v>
+        <v>-17.18</v>
       </c>
       <c r="D52" t="n">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n">
         <v>1.57</v>
@@ -6737,10 +6797,10 @@
         <v>-2</v>
       </c>
       <c r="C53" t="n">
-        <v>-20.65</v>
+        <v>-16.58</v>
       </c>
       <c r="D53" t="n">
-        <v>3.73</v>
+        <v>9</v>
       </c>
       <c r="E53" t="n">
         <v>1.57</v>
@@ -6757,10 +6817,10 @@
         <v>-2</v>
       </c>
       <c r="C54" t="n">
-        <v>-20.4</v>
+        <v>-15.98</v>
       </c>
       <c r="D54" t="n">
-        <v>3.32</v>
+        <v>9</v>
       </c>
       <c r="E54" t="n">
         <v>1.57</v>
@@ -6777,10 +6837,10 @@
         <v>-2</v>
       </c>
       <c r="C55" t="n">
-        <v>-20.18</v>
+        <v>-15.38</v>
       </c>
       <c r="D55" t="n">
-        <v>2.95</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
         <v>1.57</v>
@@ -6797,10 +6857,10 @@
         <v>-2</v>
       </c>
       <c r="C56" t="n">
-        <v>-19.98</v>
+        <v>-14.78</v>
       </c>
       <c r="D56" t="n">
-        <v>2.62</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
         <v>1.57</v>
@@ -6817,10 +6877,10 @@
         <v>-2</v>
       </c>
       <c r="C57" t="n">
-        <v>-19.81</v>
+        <v>-14.18</v>
       </c>
       <c r="D57" t="n">
-        <v>2.33</v>
+        <v>9</v>
       </c>
       <c r="E57" t="n">
         <v>1.57</v>
@@ -6837,10 +6897,10 @@
         <v>-2</v>
       </c>
       <c r="C58" t="n">
-        <v>-19.65</v>
+        <v>-13.58</v>
       </c>
       <c r="D58" t="n">
-        <v>2.07</v>
+        <v>9</v>
       </c>
       <c r="E58" t="n">
         <v>1.57</v>
@@ -6857,10 +6917,10 @@
         <v>-2</v>
       </c>
       <c r="C59" t="n">
-        <v>-19.51</v>
+        <v>-12.98</v>
       </c>
       <c r="D59" t="n">
-        <v>1.84</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
         <v>1.57</v>
@@ -6874,16 +6934,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-2</v>
+        <v>-2.05</v>
       </c>
       <c r="C60" t="n">
-        <v>-19.39</v>
+        <v>-12.38</v>
       </c>
       <c r="D60" t="n">
-        <v>1.64</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -6894,16 +6954,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-2</v>
+        <v>-2.05</v>
       </c>
       <c r="C61" t="n">
-        <v>-19.28</v>
+        <v>-11.78</v>
       </c>
       <c r="D61" t="n">
-        <v>1.45</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -6914,13 +6974,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-2</v>
+        <v>-2.03</v>
       </c>
       <c r="C62" t="n">
-        <v>-19.19</v>
+        <v>-11.18</v>
       </c>
       <c r="D62" t="n">
-        <v>1.29</v>
+        <v>9</v>
       </c>
       <c r="E62" t="n">
         <v>1.57</v>
@@ -6934,16 +6994,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-2</v>
+        <v>-1.98</v>
       </c>
       <c r="C63" t="n">
-        <v>-19.1</v>
+        <v>-10.59</v>
       </c>
       <c r="D63" t="n">
-        <v>1.15</v>
+        <v>9</v>
       </c>
       <c r="E63" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -6954,16 +7014,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="C64" t="n">
-        <v>-19.02</v>
+        <v>-9.99</v>
       </c>
       <c r="D64" t="n">
-        <v>1.02</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -6974,16 +7034,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="C65" t="n">
-        <v>-18.95</v>
+        <v>-9.4</v>
       </c>
       <c r="D65" t="n">
-        <v>0.91</v>
+        <v>9</v>
       </c>
       <c r="E65" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -6994,16 +7054,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-2</v>
+        <v>-1.67</v>
       </c>
       <c r="C66" t="n">
-        <v>-18.89</v>
+        <v>-8.81</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8100000000000001</v>
+        <v>9</v>
       </c>
       <c r="E66" t="n">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -7014,16 +7074,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-2</v>
+        <v>-1.52</v>
       </c>
       <c r="C67" t="n">
-        <v>-18.84</v>
+        <v>-8.23</v>
       </c>
       <c r="D67" t="n">
-        <v>0.72</v>
+        <v>9</v>
       </c>
       <c r="E67" t="n">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -7034,16 +7094,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-2</v>
+        <v>-1.34</v>
       </c>
       <c r="C68" t="n">
-        <v>-18.79</v>
+        <v>-7.66</v>
       </c>
       <c r="D68" t="n">
-        <v>0.64</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -7054,16 +7114,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-2</v>
+        <v>-1.14</v>
       </c>
       <c r="C69" t="n">
-        <v>-18.75</v>
+        <v>-7.09</v>
       </c>
       <c r="D69" t="n">
-        <v>0.57</v>
+        <v>9</v>
       </c>
       <c r="E69" t="n">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -7074,16 +7134,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-2</v>
+        <v>-0.92</v>
       </c>
       <c r="C70" t="n">
-        <v>-18.71</v>
+        <v>-6.54</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>1.57</v>
+        <v>1.31</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -7094,16 +7154,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-2</v>
+        <v>-0.67</v>
       </c>
       <c r="C71" t="n">
-        <v>-18.68</v>
+        <v>-5.99</v>
       </c>
       <c r="D71" t="n">
-        <v>0.45</v>
+        <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>1.57</v>
+        <v>1.27</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -7114,16 +7174,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-2</v>
+        <v>-0.4</v>
       </c>
       <c r="C72" t="n">
-        <v>-18.65</v>
+        <v>-5.45</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -7134,16 +7194,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-2</v>
+        <v>-0.11</v>
       </c>
       <c r="C73" t="n">
-        <v>-18.62</v>
+        <v>-4.93</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35</v>
+        <v>9</v>
       </c>
       <c r="E73" t="n">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -7154,16 +7214,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-2</v>
+        <v>0.21</v>
       </c>
       <c r="C74" t="n">
-        <v>-18.6</v>
+        <v>-4.42</v>
       </c>
       <c r="D74" t="n">
-        <v>0.31</v>
+        <v>9</v>
       </c>
       <c r="E74" t="n">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -7174,16 +7234,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-2</v>
+        <v>0.55</v>
       </c>
       <c r="C75" t="n">
-        <v>-18.58</v>
+        <v>-3.93</v>
       </c>
       <c r="D75" t="n">
-        <v>0.28</v>
+        <v>9</v>
       </c>
       <c r="E75" t="n">
-        <v>1.57</v>
+        <v>1.11</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -7194,16 +7254,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-2</v>
+        <v>0.91</v>
       </c>
       <c r="C76" t="n">
-        <v>-18.56</v>
+        <v>-3.45</v>
       </c>
       <c r="D76" t="n">
-        <v>0.25</v>
+        <v>9</v>
       </c>
       <c r="E76" t="n">
-        <v>1.57</v>
+        <v>1.06</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -7214,16 +7274,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-2</v>
+        <v>1.29</v>
       </c>
       <c r="C77" t="n">
-        <v>-18.54</v>
+        <v>-2.98</v>
       </c>
       <c r="D77" t="n">
-        <v>0.22</v>
+        <v>9</v>
       </c>
       <c r="E77" t="n">
-        <v>1.57</v>
+        <v>1.02</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -7234,16 +7294,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-2</v>
+        <v>1.69</v>
       </c>
       <c r="C78" t="n">
-        <v>-18.53</v>
+        <v>-2.54</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
-        <v>1.57</v>
+        <v>0.98</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -7254,16 +7314,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-2</v>
+        <v>2.12</v>
       </c>
       <c r="C79" t="n">
-        <v>-18.51</v>
+        <v>-2.11</v>
       </c>
       <c r="D79" t="n">
-        <v>0.17</v>
+        <v>9</v>
       </c>
       <c r="E79" t="n">
-        <v>1.57</v>
+        <v>0.93</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -7274,16 +7334,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-2</v>
+        <v>2.56</v>
       </c>
       <c r="C80" t="n">
-        <v>-18.5</v>
+        <v>-1.71</v>
       </c>
       <c r="D80" t="n">
-        <v>0.16</v>
+        <v>9</v>
       </c>
       <c r="E80" t="n">
-        <v>1.57</v>
+        <v>0.89</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -7294,16 +7354,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-2</v>
+        <v>3.02</v>
       </c>
       <c r="C81" t="n">
-        <v>-18.49</v>
+        <v>-1.32</v>
       </c>
       <c r="D81" t="n">
-        <v>0.14</v>
+        <v>9</v>
       </c>
       <c r="E81" t="n">
-        <v>1.57</v>
+        <v>0.84</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -7314,16 +7374,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-2</v>
+        <v>3.49</v>
       </c>
       <c r="C82" t="n">
-        <v>-18.48</v>
+        <v>-0.96</v>
       </c>
       <c r="D82" t="n">
-        <v>0.12</v>
+        <v>9</v>
       </c>
       <c r="E82" t="n">
-        <v>1.57</v>
+        <v>0.8</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -7334,16 +7394,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-2</v>
+        <v>3.99</v>
       </c>
       <c r="C83" t="n">
-        <v>-18.48</v>
+        <v>-0.62</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61</v>
+        <v>9</v>
       </c>
       <c r="E83" t="n">
-        <v>1.57</v>
+        <v>0.75</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -7354,16 +7414,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-2</v>
+        <v>4.5</v>
       </c>
       <c r="C84" t="n">
-        <v>-18.44</v>
+        <v>-0.3</v>
       </c>
       <c r="D84" t="n">
-        <v>1.04</v>
+        <v>9</v>
       </c>
       <c r="E84" t="n">
-        <v>1.57</v>
+        <v>0.7</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -7374,16 +7434,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-2</v>
+        <v>5.02</v>
       </c>
       <c r="C85" t="n">
-        <v>-18.37</v>
+        <v>-0.01</v>
       </c>
       <c r="D85" t="n">
-        <v>1.43</v>
+        <v>9</v>
       </c>
       <c r="E85" t="n">
-        <v>1.57</v>
+        <v>0.66</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -7394,18 +7454,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-2</v>
+        <v>5.56</v>
       </c>
       <c r="C86" t="n">
-        <v>-18.27</v>
+        <v>0.26</v>
       </c>
       <c r="D86" t="n">
-        <v>1.77</v>
+        <v>9</v>
       </c>
       <c r="E86" t="n">
-        <v>1.57</v>
+        <v>0.61</v>
       </c>
       <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F87" t="b">
         <v>0</v>
       </c>
     </row>
